--- a/Tutoring500nonlinear.xlsx
+++ b/Tutoring500nonlinear.xlsx
@@ -105,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H501"/>
+  <dimension ref="A1:K501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B131" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130:K131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3723,7 +3724,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>17</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>20</v>
       </c>
@@ -3774,8 +3775,13 @@
       <c r="H130">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J130" s="1">
+        <f>SUM(B126,B135,B144,B151,B164,B172,B203,B261,B293,B295,B349,B375,B403,B465)</f>
+        <v>647</v>
+      </c>
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>66</v>
       </c>
@@ -3800,8 +3806,10 @@
       <c r="H131">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>56</v>
       </c>
@@ -3827,7 +3835,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>9</v>
       </c>
@@ -3853,7 +3861,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>83</v>
       </c>
@@ -3879,7 +3887,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>3</v>
       </c>
@@ -3905,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>83</v>
       </c>
@@ -3931,7 +3939,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>26</v>
       </c>
@@ -3957,7 +3965,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>59</v>
       </c>
@@ -3983,7 +3991,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>4</v>
       </c>
@@ -4009,7 +4017,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>40</v>
       </c>
@@ -4035,7 +4043,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>59</v>
       </c>
@@ -4061,7 +4069,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>20</v>
       </c>
@@ -4087,7 +4095,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>20</v>
       </c>
@@ -4113,7 +4121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>46</v>
       </c>
@@ -13426,6 +13434,10 @@
     <sortCondition ref="C2:C501" customList="monday,tuesday,wednesday,thursday,friday,saturday,sunday"/>
     <sortCondition ref="E2:E501"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="J130:K131"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>